--- a/biology/Médecine/Phényléphrine/Phényléphrine.xlsx
+++ b/biology/Médecine/Phényléphrine/Phényléphrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nyl%C3%A9phrine</t>
+          <t>Phényléphrine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phényléphrine, ou néosynéphrine, est une substance chimique appartenant à la famille des phényléthylamines qui possède des propriétés anticoagulantes, antithrombotiques, sympathicomimétiques, alpha-stimulantes, vasoconstrictrices et mydriatiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nyl%C3%A9phrine</t>
+          <t>Phényléphrine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa structure est très proche de celle de l'adrénaline, à la différence près qu'elle ne possède pas de groupement hydroxyle en position 4 sur l'aromatique ce qui ne fait pas d'elle une catécholamine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nyl%C3%A9phrine</t>
+          <t>Phényléphrine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Utilisation médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être utilisée pour lutter contre l'hypotension, mais elle est surtout utilisée comme décongestionnant dans des pathologies telles que le rhume, la rhinopharyngite. Elle est utilisée sous forme de chlorhydrate dans de nombreux médicaments sans ordonnance, seuls ou en association avec un antihistaminique et un antiseptique.
-En septembre 2023, suivant la remise d'un rapport, un groupe d'expert assemblé par la FDA américaine déclare de façon unanime que la phényléphrine prise de façon orale n'est pas plus efficace qu'un placebo comme décongestionnant[2], des doutes sur son efficacité ayant déjà été émis depuis les années 1970[3], soutenus par un certain nombre d'études indépendantes dans l'intervalle[4],[5], la phényléphrine ayant été approuvée à l'époque par la FDA sur la seule foi d'études fournies par des entreprises pharmaceutiques[6] alors pressées de trouver un substitut à la pseudoéphédrine, efficace elle, mais utilisée de façon détourné pour la production de drogue (méthamphétamine).
+En septembre 2023, suivant la remise d'un rapport, un groupe d'expert assemblé par la FDA américaine déclare de façon unanime que la phényléphrine prise de façon orale n'est pas plus efficace qu'un placebo comme décongestionnant, des doutes sur son efficacité ayant déjà été émis depuis les années 1970, soutenus par un certain nombre d'études indépendantes dans l'intervalle la phényléphrine ayant été approuvée à l'époque par la FDA sur la seule foi d'études fournies par des entreprises pharmaceutiques alors pressées de trouver un substitut à la pseudoéphédrine, efficace elle, mais utilisée de façon détourné pour la production de drogue (méthamphétamine).
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nyl%C3%A9phrine</t>
+          <t>Phényléphrine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Mécanismes d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a un effet quasi-exclusif sur les récepteurs α-adrénergiques.
 </t>
